--- a/G.A.M.M.A/modpack_addons/artefacts_values.xlsx
+++ b/G.A.M.M.A/modpack_addons/artefacts_values.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10155" windowHeight="3570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10155" windowHeight="3570"/>
   </bookViews>
   <sheets>
     <sheet name="Pos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="149">
   <si>
     <t>Chem</t>
   </si>
@@ -144,9 +144,6 @@
     <t>0.41</t>
   </si>
   <si>
-    <t>0.615</t>
-  </si>
-  <si>
     <t>0.82</t>
   </si>
   <si>
@@ -159,12 +156,6 @@
     <t>0.22667</t>
   </si>
   <si>
-    <t>0.45334</t>
-  </si>
-  <si>
-    <t>0.68001</t>
-  </si>
-  <si>
     <t>0.90668</t>
   </si>
   <si>
@@ -198,12 +189,6 @@
     <t>0.292293</t>
   </si>
   <si>
-    <t>0.389724</t>
-  </si>
-  <si>
-    <t>0.487155</t>
-  </si>
-  <si>
     <t>0.584586</t>
   </si>
   <si>
@@ -273,9 +258,6 @@
     <t>-0.15555</t>
   </si>
   <si>
-    <t>-0.3111</t>
-  </si>
-  <si>
     <t>-0.46665</t>
   </si>
   <si>
@@ -288,9 +270,6 @@
     <t>-0.9333</t>
   </si>
   <si>
-    <t>-0.1015625</t>
-  </si>
-  <si>
     <t>-0.203125</t>
   </si>
   <si>
@@ -309,9 +288,6 @@
     <t>-0.07575</t>
   </si>
   <si>
-    <t>-0.1515</t>
-  </si>
-  <si>
     <t>-0.22725</t>
   </si>
   <si>
@@ -345,9 +321,6 @@
     <t>-0.2833375</t>
   </si>
   <si>
-    <t>-0.566675</t>
-  </si>
-  <si>
     <t>-0.8500125</t>
   </si>
   <si>
@@ -378,12 +351,6 @@
     <t>-0.534375</t>
   </si>
   <si>
-    <t>-0.12178875</t>
-  </si>
-  <si>
-    <t>-0.2435775</t>
-  </si>
-  <si>
     <t>-0.36536625</t>
   </si>
   <si>
@@ -441,9 +408,6 @@
     <t>-0.000336735</t>
   </si>
   <si>
-    <t>-0.00067347</t>
-  </si>
-  <si>
     <t>-0.001010205</t>
   </si>
   <si>
@@ -451,19 +415,82 @@
   </si>
   <si>
     <t>-0.00202041</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>-0.00070</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.135</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.54</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>0.00043</t>
+  </si>
+  <si>
+    <t>0.00086</t>
+  </si>
+  <si>
+    <t>0.00129</t>
+  </si>
+  <si>
+    <t>0.00172</t>
+  </si>
+  <si>
+    <t>0.00215</t>
+  </si>
+  <si>
+    <t>0.00258</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.1015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -486,9 +513,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,16 +915,16 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -902,22 +932,22 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -925,22 +955,22 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -951,19 +981,19 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -971,22 +1001,22 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -997,19 +1027,19 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1020,19 +1050,42 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1045,30 +1098,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1076,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1099,22 +1152,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1122,22 +1175,22 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1145,22 +1198,22 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1168,22 +1221,22 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1191,22 +1244,22 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1214,22 +1267,22 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1237,22 +1290,22 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1260,22 +1313,22 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1283,22 +1336,22 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
